--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Roller" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF141823"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -213,22 +221,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,13 +343,13 @@
   <tableColumns count="7">
     <tableColumn id="1" name="HAFTA"/>
     <tableColumn id="2" name="Teslim Ücreti" dataDxfId="7"/>
-    <tableColumn id="10" name="Erken Teslim Gün Sayısı" dataDxfId="5"/>
-    <tableColumn id="3" name="Bonus Yüzdesi (%)" dataDxfId="6"/>
+    <tableColumn id="10" name="Erken Teslim Gün Sayısı" dataDxfId="6"/>
+    <tableColumn id="3" name="Bonus Yüzdesi (%)" dataDxfId="5"/>
     <tableColumn id="11" name="Erken Teslim Ücreti" dataDxfId="4">
       <calculatedColumnFormula>QUOTIENT(B13 * C13 * D13,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Transfer" dataDxfId="1"/>
-    <tableColumn id="4" name="Toplam" dataDxfId="0">
+    <tableColumn id="12" name="Transfer" dataDxfId="3"/>
+    <tableColumn id="4" name="Toplam" dataDxfId="2">
       <calculatedColumnFormula>SUM(B13,E13,F13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -348,10 +358,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="B22:B29" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="B22:B29" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B22:B29"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="100.000" dataDxfId="2">
+    <tableColumn id="1" name="100.000" dataDxfId="0">
       <calculatedColumnFormula>B22 - I3 + G13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -624,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,11 +644,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -691,7 +701,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>21127237</v>
       </c>
     </row>
@@ -702,6 +712,9 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="10">
+        <v>21027205</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -709,6 +722,9 @@
       </c>
       <c r="B8" t="s">
         <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>21127606</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -746,17 +762,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -914,15 +930,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1075,10 +1091,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1093,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="5">
-        <f>B22 - I3 + G13</f>
+        <f t="shared" ref="B23:B29" si="3">B22 - I3 + G13</f>
         <v>66000</v>
       </c>
     </row>
@@ -1102,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="5">
-        <f>B23 - I4 + G14</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -1111,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="5">
-        <f>B24 - I5 + G15</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -1120,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="5">
-        <f>B25 - I6 + G16</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -1129,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="5">
-        <f>B26 - I7 + G17</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -1138,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="5">
-        <f>B27 - I8 + G18</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -1147,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="5">
-        <f>B28 - I9 + G19</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\yaz müh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Roller" sheetId="1" r:id="rId1"/>
@@ -228,6 +228,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,8 +239,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -644,11 +644,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -701,7 +701,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>21127237</v>
       </c>
     </row>
@@ -712,7 +712,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>21027205</v>
       </c>
     </row>
@@ -723,7 +723,7 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>21127606</v>
       </c>
     </row>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,17 +762,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -837,16 +837,30 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
       <c r="I4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -930,15 +944,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -992,14 +1006,22 @@
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1091,10 +1113,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1119,7 +1141,7 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" si="3"/>
-        <v>66000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1128,7 +1150,7 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" si="3"/>
-        <v>66000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,7 +1159,7 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" si="3"/>
-        <v>66000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1146,7 +1168,7 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" si="3"/>
-        <v>66000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1155,7 +1177,7 @@
       </c>
       <c r="B28" s="5">
         <f t="shared" si="3"/>
-        <v>66000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1164,7 +1186,7 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" si="3"/>
-        <v>66000</v>
+        <v>32000</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\yaz müh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Roller" sheetId="1" r:id="rId1"/>
@@ -228,8 +228,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,6 +237,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -644,11 +644,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -701,7 +701,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>21127237</v>
       </c>
     </row>
@@ -712,7 +712,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>21027205</v>
       </c>
     </row>
@@ -723,7 +723,7 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>21127606</v>
       </c>
     </row>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,17 +762,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -837,30 +837,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4000</v>
-      </c>
-      <c r="F4" s="5">
-        <v>6000</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4000</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="5">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -944,15 +930,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1006,22 +992,14 @@
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1113,10 +1091,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1141,7 +1119,7 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1150,7 +1128,7 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,7 +1137,7 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1168,7 +1146,7 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1177,7 +1155,7 @@
       </c>
       <c r="B28" s="5">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1186,7 +1164,7 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" si="3"/>
-        <v>32000</v>
+        <v>66000</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\yaz müh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Roller" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Proje Yöneticisi</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>Erken Teslim Ücreti</t>
+  </si>
+  <si>
+    <t>Eklenen Faiz</t>
+  </si>
+  <si>
+    <t>Faiz Oranı (%)</t>
+  </si>
+  <si>
+    <t>Teslim</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Vizyon Belgesi</t>
+  </si>
+  <si>
+    <t>Proje Planı</t>
   </si>
 </sst>
 </file>
@@ -243,7 +261,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -318,18 +342,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tablo5" displayName="Tablo5" ref="A2:I9" totalsRowShown="0">
-  <autoFilter ref="A2:I9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tablo5" displayName="Tablo5" ref="A2:I16" totalsRowShown="0">
+  <autoFilter ref="A2:I16"/>
   <tableColumns count="9">
     <tableColumn id="1" name="HAFTA"/>
-    <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="15"/>
-    <tableColumn id="3" name="Sistem Analisti" dataDxfId="14"/>
-    <tableColumn id="4" name="YGU - 1" dataDxfId="13"/>
-    <tableColumn id="5" name="YGU - 2" dataDxfId="12"/>
-    <tableColumn id="6" name="Tasarımcı" dataDxfId="11"/>
-    <tableColumn id="7" name="Test Uzmanı" dataDxfId="10"/>
-    <tableColumn id="8" name="Transfer" dataDxfId="9"/>
-    <tableColumn id="9" name="Toplam" dataDxfId="8">
+    <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="17"/>
+    <tableColumn id="3" name="Sistem Analisti" dataDxfId="16"/>
+    <tableColumn id="4" name="YGU - 1" dataDxfId="15"/>
+    <tableColumn id="5" name="YGU - 2" dataDxfId="14"/>
+    <tableColumn id="6" name="Tasarımcı" dataDxfId="13"/>
+    <tableColumn id="7" name="Test Uzmanı" dataDxfId="12"/>
+    <tableColumn id="8" name="Transfer" dataDxfId="11"/>
+    <tableColumn id="9" name="Toplam" dataDxfId="10">
       <calculatedColumnFormula>SUM(B3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -338,19 +362,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tablo578" displayName="Tablo578" ref="A12:G19" totalsRowShown="0">
-  <autoFilter ref="A12:G19"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tablo578" displayName="Tablo578" ref="A19:J33" totalsRowShown="0">
+  <autoFilter ref="A19:J33"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="HAFTA"/>
-    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="7"/>
-    <tableColumn id="10" name="Erken Teslim Gün Sayısı" dataDxfId="6"/>
-    <tableColumn id="3" name="Bonus Yüzdesi (%)" dataDxfId="5"/>
-    <tableColumn id="11" name="Erken Teslim Ücreti" dataDxfId="4">
-      <calculatedColumnFormula>QUOTIENT(B13 * C13 * D13,100)</calculatedColumnFormula>
+    <tableColumn id="7" name="Teslim"/>
+    <tableColumn id="2" name="Teslim Ücreti" dataDxfId="9"/>
+    <tableColumn id="10" name="Erken Teslim Gün Sayısı" dataDxfId="8"/>
+    <tableColumn id="3" name="Bonus Yüzdesi (%)" dataDxfId="7"/>
+    <tableColumn id="11" name="Erken Teslim Ücreti" dataDxfId="6">
+      <calculatedColumnFormula>QUOTIENT(C20 * D20 * E20,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Transfer" dataDxfId="3"/>
-    <tableColumn id="4" name="Toplam" dataDxfId="2">
-      <calculatedColumnFormula>SUM(B13,E13,F13)</calculatedColumnFormula>
+    <tableColumn id="6" name="Faiz Oranı (%)" dataDxfId="2"/>
+    <tableColumn id="5" name="Eklenen Faiz" dataDxfId="1">
+      <calculatedColumnFormula>B36 * G20 / 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Transfer" dataDxfId="5"/>
+    <tableColumn id="4" name="Toplam" dataDxfId="0">
+      <calculatedColumnFormula>SUM(C20,F20,H20,I20)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -358,11 +387,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="B22:B29" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B22:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="B36:B50" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B36:B50"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="100.000" dataDxfId="0">
-      <calculatedColumnFormula>B22 - I3 + G13</calculatedColumnFormula>
+    <tableColumn id="1" name="100.000" dataDxfId="3">
+      <calculatedColumnFormula>B36 - I3 + J20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -741,24 +770,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" customWidth="1"/>
-    <col min="15" max="16" width="13.5546875" style="2" customWidth="1"/>
-    <col min="17" max="18" width="14.77734375" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="13.5546875" style="2" customWidth="1"/>
+    <col min="20" max="21" width="14.77734375" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -867,16 +906,30 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -943,257 +996,669 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I16" si="1">SUM(B10:H10)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" ref="E13:E19" si="1">QUOTIENT(B13 * C13 * D13,100)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" ref="G13:G19" si="2">SUM(B13,E13,F13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>3</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>4</v>
+      <c r="A16">
+        <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F26" si="2">QUOTIENT(C20 * D20 * E20,100)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <f>B36 * G20 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" ref="J20:J26" si="3">SUM(C20,F20,H20,I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <f>B37 * G21 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="3"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <f>B38 * G22 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <f>B39 * G23 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
+      <c r="B24" s="2"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
+        <f>B40 * G24 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
+      <c r="B25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <f>B41 * G25 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5">
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
+        <f>B42 * G26 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:F33" si="4">QUOTIENT(C27 * D27 * E27,100)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <f>B43 * G27 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
+        <f t="shared" ref="J27:J33" si="5">SUM(C27,F27,H27,I27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
+        <f>B44 * G28 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
+        <f>B45 * G29 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5">
+        <f>B46 * G30 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
+        <f>B47 * G31 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
+        <f>B48 * G32 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5">
+        <f>B49 * G33 / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="37" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="5">
-        <f t="shared" ref="B23:B29" si="3">B22 - I3 + G13</f>
+      <c r="B37" s="5">
+        <f>B36 - I3 + J20</f>
         <v>66000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="5">
-        <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="B38" s="5">
+        <f>B37 - I4 + J21</f>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>3</v>
       </c>
-      <c r="B25" s="5">
-        <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="B39" s="5">
+        <f>B38 - I5 + J22</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="5">
-        <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="B40" s="5">
+        <f>B39 - I6 + J23</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>5</v>
       </c>
-      <c r="B27" s="5">
-        <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="B41" s="5">
+        <f>B40 - I7 + J24</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>6</v>
       </c>
-      <c r="B28" s="5">
-        <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="B42" s="5">
+        <f>B41 - I8 + J25</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="5">
-        <f t="shared" si="3"/>
-        <v>32000</v>
+      <c r="B43" s="5">
+        <f>B42 - I9 + J26</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5">
+        <f>B43 - I10 + J27</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5">
+        <f>B44 - I11 + J28</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5">
+        <f>B45 - I12 + J29</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5">
+        <f>B46 - I13 + J30</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5">
+        <f>B47 - I14 + J31</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>13</v>
+      </c>
+      <c r="B49" s="5">
+        <f>B48 - I15 + J32</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>14</v>
+      </c>
+      <c r="B50" s="5">
+        <f>B49 - I16 + J33</f>
+        <v>63000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\yaz müh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,12 +373,12 @@
     <tableColumn id="11" name="Erken Teslim Ücreti" dataDxfId="6">
       <calculatedColumnFormula>QUOTIENT(C20 * D20 * E20,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Faiz Oranı (%)" dataDxfId="2"/>
-    <tableColumn id="5" name="Eklenen Faiz" dataDxfId="1">
+    <tableColumn id="6" name="Faiz Oranı (%)" dataDxfId="5"/>
+    <tableColumn id="5" name="Eklenen Faiz" dataDxfId="4">
       <calculatedColumnFormula>B36 * G20 / 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Transfer" dataDxfId="5"/>
-    <tableColumn id="4" name="Toplam" dataDxfId="0">
+    <tableColumn id="12" name="Transfer" dataDxfId="3"/>
+    <tableColumn id="4" name="Toplam" dataDxfId="2">
       <calculatedColumnFormula>SUM(C20,F20,H20,I20)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -387,10 +387,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="B36:B50" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="B36:B50" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B36:B50"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="100.000" dataDxfId="3">
+    <tableColumn id="1" name="100.000" dataDxfId="0">
       <calculatedColumnFormula>B36 - I3 + J20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,16 +936,30 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1168,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ref="F20:F26" si="2">QUOTIENT(C20 * D20 * E20,100)</f>
@@ -1178,14 +1192,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <f>B36 * G20 / 100</f>
+        <f t="shared" ref="H20:H33" si="3">B36 * G20 / 100</f>
         <v>0</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ref="J20:J26" si="3">SUM(C20,F20,H20,I20)</f>
+        <f t="shared" ref="J20:J26" si="4">SUM(C20,F20,H20,I20)</f>
         <v>0</v>
       </c>
     </row>
@@ -1213,14 +1227,14 @@
         <v>0</v>
       </c>
       <c r="H21" s="5">
-        <f>B37 * G21 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65000</v>
       </c>
     </row>
@@ -1238,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="2"/>
@@ -1248,14 +1262,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <f>B38 * G22 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1266,22 +1280,32 @@
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
       <c r="F23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>15000</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
       <c r="H23" s="5">
-        <f>B39 * G23 / 100</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5"/>
+        <f t="shared" si="3"/>
+        <v>6300</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
       <c r="J23" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>71300</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1298,12 +1322,12 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5">
-        <f>B40 * G24 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1321,12 +1345,12 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5">
-        <f>B41 * G25 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1344,12 +1368,12 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5">
-        <f>B42 * G26 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1362,17 +1386,17 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
-        <f t="shared" ref="F27:F33" si="4">QUOTIENT(C27 * D27 * E27,100)</f>
+        <f t="shared" ref="F27:F33" si="5">QUOTIENT(C27 * D27 * E27,100)</f>
         <v>0</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5">
-        <f>B43 * G27 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5">
-        <f t="shared" ref="J27:J33" si="5">SUM(C27,F27,H27,I27)</f>
+        <f t="shared" ref="J27:J33" si="6">SUM(C27,F27,H27,I27)</f>
         <v>0</v>
       </c>
     </row>
@@ -1385,17 +1409,17 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5">
-        <f>B44 * G28 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1408,17 +1432,17 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5">
-        <f>B45 * G29 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1431,17 +1455,17 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5">
-        <f>B46 * G30 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1454,17 +1478,17 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5">
-        <f>B47 * G31 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1477,17 +1501,17 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5">
-        <f>B48 * G32 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1500,17 +1524,17 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5">
-        <f>B49 * G33 / 100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1533,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="5">
-        <f>B36 - I3 + J20</f>
+        <f t="shared" ref="B37:B50" si="7">B36 - I3 + J20</f>
         <v>66000</v>
       </c>
     </row>
@@ -1542,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="5">
-        <f>B37 - I4 + J21</f>
+        <f t="shared" si="7"/>
         <v>97000</v>
       </c>
     </row>
@@ -1551,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="5">
-        <f>B38 - I5 + J22</f>
+        <f t="shared" si="7"/>
         <v>63000</v>
       </c>
     </row>
@@ -1560,8 +1584,8 @@
         <v>4</v>
       </c>
       <c r="B40" s="5">
-        <f>B39 - I6 + J23</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1569,8 +1593,8 @@
         <v>5</v>
       </c>
       <c r="B41" s="5">
-        <f>B40 - I7 + J24</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1578,8 +1602,8 @@
         <v>6</v>
       </c>
       <c r="B42" s="5">
-        <f>B41 - I8 + J25</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1587,8 +1611,8 @@
         <v>7</v>
       </c>
       <c r="B43" s="5">
-        <f>B42 - I9 + J26</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1596,8 +1620,8 @@
         <v>8</v>
       </c>
       <c r="B44" s="5">
-        <f>B43 - I10 + J27</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1605,8 +1629,8 @@
         <v>9</v>
       </c>
       <c r="B45" s="5">
-        <f>B44 - I11 + J28</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1614,8 +1638,8 @@
         <v>10</v>
       </c>
       <c r="B46" s="5">
-        <f>B45 - I12 + J29</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1623,8 +1647,8 @@
         <v>11</v>
       </c>
       <c r="B47" s="5">
-        <f>B46 - I13 + J30</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1632,8 +1656,8 @@
         <v>12</v>
       </c>
       <c r="B48" s="5">
-        <f>B47 - I14 + J31</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1641,8 +1665,8 @@
         <v>13</v>
       </c>
       <c r="B49" s="5">
-        <f>B48 - I15 + J32</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1650,8 +1674,8 @@
         <v>14</v>
       </c>
       <c r="B50" s="5">
-        <f>B49 - I16 + J33</f>
-        <v>63000</v>
+        <f t="shared" si="7"/>
+        <v>100300</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Proje Yöneticisi</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>Proje Planı</t>
+  </si>
+  <si>
+    <t>1. Teslim</t>
+  </si>
+  <si>
+    <t>2. Teslim</t>
+  </si>
+  <si>
+    <t>Son Teslim</t>
   </si>
 </sst>
 </file>
@@ -239,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -257,6 +266,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,16 +976,30 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1312,30 +1336,44 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
       <c r="F24" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5">
+        <v>10</v>
+      </c>
       <c r="H24" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="5"/>
+        <v>10030</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
       <c r="J24" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1358,7 +1396,9 @@
       <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1381,7 +1421,9 @@
       <c r="A27">
         <v>8</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1404,7 +1446,9 @@
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1427,7 +1471,9 @@
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1450,7 +1496,9 @@
       <c r="A30">
         <v>11</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1473,7 +1521,9 @@
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1496,7 +1546,9 @@
       <c r="A32">
         <v>13</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1519,7 +1571,9 @@
       <c r="A33">
         <v>14</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1594,7 +1648,7 @@
       </c>
       <c r="B41" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1603,7 +1657,7 @@
       </c>
       <c r="B42" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1612,7 +1666,7 @@
       </c>
       <c r="B43" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1621,7 +1675,7 @@
       </c>
       <c r="B44" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1630,7 +1684,7 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1639,7 +1693,7 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1648,7 +1702,7 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1657,7 +1711,7 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1666,7 +1720,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1675,7 +1729,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="7"/>
-        <v>100300</v>
+        <v>76330</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -257,6 +257,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,7 +267,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,11 +683,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,17 +811,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1006,16 +1006,30 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1147,18 +1161,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1374,29 +1388,39 @@
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
       <c r="F25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5">
+        <v>10</v>
+      </c>
       <c r="H25" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>7633</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
       <c r="J25" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="5"/>
@@ -1593,10 +1617,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
@@ -1657,7 +1681,7 @@
       </c>
       <c r="B42" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1666,7 +1690,7 @@
       </c>
       <c r="B43" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1675,7 +1699,7 @@
       </c>
       <c r="B44" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1684,7 +1708,7 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1693,7 +1717,7 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1702,7 +1726,7 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1711,7 +1735,7 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1720,7 +1744,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1729,7 +1753,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="7"/>
-        <v>76330</v>
+        <v>49963</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\yaz müh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furkan\Desktop\ymlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,16 +1036,30 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1423,22 +1437,32 @@
       <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
       <c r="F26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="5"/>
+        <v>10000</v>
+      </c>
+      <c r="G26" s="5">
+        <v>10</v>
+      </c>
       <c r="H26" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>4996.3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
       <c r="J26" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>114996.3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1690,7 +1714,7 @@
       </c>
       <c r="B43" s="5">
         <f t="shared" si="7"/>
-        <v>49963</v>
+        <v>130959.3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1699,7 +1723,7 @@
       </c>
       <c r="B44" s="5">
         <f t="shared" si="7"/>
-        <v>49963</v>
+        <v>130959.3</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1708,7 +1732,7 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" si="7"/>
-        <v>49963</v>
+        <v>130959.3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1717,7 +1741,7 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" si="7"/>
-        <v>49963</v>
+        <v>130959.3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1726,7 +1750,7 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="7"/>
-        <v>49963</v>
+        <v>130959.3</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1735,7 +1759,7 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="7"/>
-        <v>49963</v>
+        <v>130959.3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1744,7 +1768,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="7"/>
-        <v>49963</v>
+        <v>130959.3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1753,7 +1777,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="7"/>
-        <v>49963</v>
+        <v>130959.3</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,16 +1066,30 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
       <c r="I10" s="5">
         <f t="shared" ref="I10:I16" si="1">SUM(B10:H10)</f>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1472,22 +1486,32 @@
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
       <c r="F27" s="5">
         <f t="shared" ref="F27:F33" si="5">QUOTIENT(C27 * D27 * E27,100)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
       <c r="H27" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="5"/>
+        <v>13095.93</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
       <c r="J27" s="5">
         <f t="shared" ref="J27:J33" si="6">SUM(C27,F27,H27,I27)</f>
-        <v>0</v>
+        <v>13095.93</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1723,7 +1747,7 @@
       </c>
       <c r="B44" s="5">
         <f t="shared" si="7"/>
-        <v>130959.3</v>
+        <v>110055.23000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1732,7 +1756,7 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" si="7"/>
-        <v>130959.3</v>
+        <v>110055.23000000001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1741,7 +1765,7 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" si="7"/>
-        <v>130959.3</v>
+        <v>110055.23000000001</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1750,7 +1774,7 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="7"/>
-        <v>130959.3</v>
+        <v>110055.23000000001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1759,7 +1783,7 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="7"/>
-        <v>130959.3</v>
+        <v>110055.23000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1768,7 +1792,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="7"/>
-        <v>130959.3</v>
+        <v>110055.23000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1777,7 +1801,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="7"/>
-        <v>130959.3</v>
+        <v>110055.23000000001</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,16 +1096,30 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
       <c r="I11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1521,22 +1535,32 @@
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
       <c r="F28" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5">
+        <v>10</v>
+      </c>
       <c r="H28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>11005.523000000001</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
       <c r="J28" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11005.523000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1756,7 +1780,7 @@
       </c>
       <c r="B45" s="5">
         <f t="shared" si="7"/>
-        <v>110055.23000000001</v>
+        <v>87060.753000000012</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1765,7 +1789,7 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" si="7"/>
-        <v>110055.23000000001</v>
+        <v>87060.753000000012</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1774,7 +1798,7 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="7"/>
-        <v>110055.23000000001</v>
+        <v>87060.753000000012</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1783,7 +1807,7 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="7"/>
-        <v>110055.23000000001</v>
+        <v>87060.753000000012</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1792,7 +1816,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="7"/>
-        <v>110055.23000000001</v>
+        <v>87060.753000000012</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1801,7 +1825,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="7"/>
-        <v>110055.23000000001</v>
+        <v>87060.753000000012</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,16 +1126,30 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
       <c r="I12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1570,22 +1584,32 @@
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>10</v>
+      </c>
       <c r="F29" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5">
+        <v>10</v>
+      </c>
       <c r="H29" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5"/>
+        <v>8706.0753000000022</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
       <c r="J29" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8706.0753000000022</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1789,7 +1813,7 @@
       </c>
       <c r="B46" s="5">
         <f t="shared" si="7"/>
-        <v>87060.753000000012</v>
+        <v>61766.828300000016</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1798,7 +1822,7 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="7"/>
-        <v>87060.753000000012</v>
+        <v>61766.828300000016</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1807,7 +1831,7 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="7"/>
-        <v>87060.753000000012</v>
+        <v>61766.828300000016</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1816,7 +1840,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="7"/>
-        <v>87060.753000000012</v>
+        <v>61766.828300000016</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1825,7 +1849,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="7"/>
-        <v>87060.753000000012</v>
+        <v>61766.828300000016</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,32 +1156,60 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1619,22 +1647,32 @@
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="C30" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>10</v>
+      </c>
       <c r="F30" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="5"/>
+        <f>QUOTIENT(C30 * D30 * E30,100)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10</v>
+      </c>
       <c r="H30" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>6176.6828300000016</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
       <c r="J30" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>106176.68283000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1644,22 +1682,32 @@
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>10</v>
+      </c>
       <c r="F31" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
+        <f>QUOTIENT(C31 * D31 * E31,100)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10</v>
+      </c>
       <c r="H31" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>13394.351113000002</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
       <c r="J31" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13394.351113000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1822,7 +1870,7 @@
       </c>
       <c r="B47" s="5">
         <f t="shared" si="7"/>
-        <v>61766.828300000016</v>
+        <v>133943.51113000003</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1831,7 +1879,7 @@
       </c>
       <c r="B48" s="5">
         <f t="shared" si="7"/>
-        <v>61766.828300000016</v>
+        <v>113337.86224300003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1840,7 +1888,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="7"/>
-        <v>61766.828300000016</v>
+        <v>113337.86224300003</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,7 +1897,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="7"/>
-        <v>61766.828300000016</v>
+        <v>113337.86224300003</v>
       </c>
     </row>
   </sheetData>

--- a/BBM487-2-Bütçe.xlsx
+++ b/BBM487-2-Bütçe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Proje Yöneticisi</t>
   </si>
@@ -352,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tablo5" displayName="Tablo5" ref="A2:I16" totalsRowShown="0">
-  <autoFilter ref="A2:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tablo5" displayName="Tablo5" ref="A2:I15" totalsRowShown="0">
+  <autoFilter ref="A2:I15"/>
   <tableColumns count="9">
     <tableColumn id="1" name="HAFTA"/>
     <tableColumn id="2" name="Proje Yöneticisi" dataDxfId="17"/>
@@ -372,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tablo578" displayName="Tablo578" ref="A19:J33" totalsRowShown="0">
-  <autoFilter ref="A19:J33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tablo578" displayName="Tablo578" ref="A19:J32" totalsRowShown="0">
+  <autoFilter ref="A19:J32"/>
   <tableColumns count="10">
     <tableColumn id="1" name="HAFTA"/>
     <tableColumn id="7" name="Teslim"/>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="B36:B50" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B36:B50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tablo11" displayName="Tablo11" ref="B36:B49" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B36:B49"/>
   <tableColumns count="1">
     <tableColumn id="1" name="100.000" dataDxfId="0">
       <calculatedColumnFormula>B36 - I3 + J20</calculatedColumnFormula>
@@ -780,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,22 +1216,33 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4000</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1239,10 +1250,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I16" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -1314,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ref="H20:H33" si="3">B36 * G20 / 100</f>
+        <f t="shared" ref="H20:H32" si="3">B36 * G20 / 100</f>
         <v>0</v>
       </c>
       <c r="I20" s="5">
@@ -1552,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ref="F27:F33" si="5">QUOTIENT(C27 * D27 * E27,100)</f>
+        <f t="shared" ref="F27:F32" si="5">QUOTIENT(C27 * D27 * E27,100)</f>
         <v>0</v>
       </c>
       <c r="G27" s="5">
@@ -1566,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" ref="J27:J33" si="6">SUM(C27,F27,H27,I27)</f>
+        <f t="shared" ref="J27:J32" si="6">SUM(C27,F27,H27,I27)</f>
         <v>13095.93</v>
       </c>
     </row>
@@ -1715,50 +1723,45 @@
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C32" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>10</v>
+      </c>
       <c r="F32" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5">
+        <v>10</v>
+      </c>
       <c r="H32" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="5"/>
+        <v>11333.786224300002</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
       <c r="J32" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>111333.7862243</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="J33" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
@@ -1779,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="5">
-        <f t="shared" ref="B37:B50" si="7">B36 - I3 + J20</f>
+        <f t="shared" ref="B37:B49" si="7">B36 - I3 + J20</f>
         <v>66000</v>
       </c>
     </row>
@@ -1888,16 +1891,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="7"/>
-        <v>113337.86224300003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>14</v>
-      </c>
-      <c r="B50" s="5">
-        <f t="shared" si="7"/>
-        <v>113337.86224300003</v>
+        <v>190671.64846730002</v>
       </c>
     </row>
   </sheetData>
